--- a/docs/horarios.xlsx
+++ b/docs/horarios.xlsx
@@ -11,17 +11,17 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Listas" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">Legajo</t>
   </si>
@@ -47,37 +47,220 @@
     <t xml:space="preserve">Aula</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabiana Rivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de Datos</t>
+    <t xml:space="preserve">Enlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norberto Briasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zoom.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de Datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto Final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miércoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion Gerencial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas de Gestion </t>
   </si>
   <si>
     <t xml:space="preserve">Viernes</t>
   </si>
   <si>
-    <t xml:space="preserve">19:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miércoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viernes</t>
+    <t xml:space="preserve">1K05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sábado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion de Recursos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigacion Operativa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legislacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redes de Informacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria de Software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis Numerico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad y Estadistica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis de Sistemas de Informacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis Matematico II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis Matematico I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintaxis y Semantica de los Lenguajes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria y Sociedad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradigmas de Programacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas Operativos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura de Computadoras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmos y Estructuras de Datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logica y Estructuras Discretas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas y Procesos de Negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra y Geometria Analitica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de Sistemas de Informacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteligencia Artificial </t>
   </si>
 </sst>
 </file>
@@ -88,7 +271,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,6 +296,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -160,17 +350,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -186,78 +388,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>307</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>501</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2" type="list">
+      <formula1>Listas!$A$2:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2" type="list">
+      <formula1>Listas!$B$2:$B$34</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
+      <formula1>Listas!$C$2:$C$33</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="http://zoom.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -266,52 +485,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.27"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
